--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2378.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2378.xlsx
@@ -351,10 +351,10 @@
         <v>1.173371448296853</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.351894038182464</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2378.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2378.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173371448296853</v>
+        <v>0.9268046617507935</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.748464226722717</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.163479804992676</v>
       </c>
       <c r="D1">
-        <v>1.351894038182464</v>
+        <v>3.359662055969238</v>
       </c>
       <c r="E1">
-        <v>0.9643248930239979</v>
+        <v>0.3774891793727875</v>
       </c>
     </row>
   </sheetData>
